--- a/Exp2021/Заповедник/Расчеты для путевых листов.xlsx
+++ b/Exp2021/Заповедник/Расчеты для путевых листов.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264"/>
+    <workbookView windowWidth="23040" windowHeight="9264" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Июль лодка" sheetId="4" r:id="rId1"/>
-    <sheet name="Дни недели" sheetId="8" r:id="rId2"/>
-    <sheet name="Июнь лодка" sheetId="1" r:id="rId3"/>
-    <sheet name="Июнь генератор" sheetId="2" r:id="rId4"/>
-    <sheet name="Июль генератор" sheetId="5" r:id="rId5"/>
-    <sheet name="Август генератор" sheetId="6" r:id="rId6"/>
-    <sheet name="Август лодка" sheetId="7" r:id="rId7"/>
-    <sheet name="Сводный отчет" sheetId="3" r:id="rId8"/>
+    <sheet name="Июль лодка (2)" sheetId="9" r:id="rId2"/>
+    <sheet name="Дни недели" sheetId="8" r:id="rId3"/>
+    <sheet name="Июнь лодка" sheetId="1" r:id="rId4"/>
+    <sheet name="Июнь генератор" sheetId="2" r:id="rId5"/>
+    <sheet name="Июль генератор" sheetId="5" r:id="rId6"/>
+    <sheet name="Август генератор" sheetId="6" r:id="rId7"/>
+    <sheet name="Август лодка" sheetId="7" r:id="rId8"/>
+    <sheet name="Сводный отчет" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="97">
   <si>
     <t>Маршрут</t>
   </si>
@@ -260,91 +261,13 @@
     <t>30.07.2020</t>
   </si>
   <si>
-    <t>1.08.2020</t>
-  </si>
-  <si>
-    <t>3.08.2020</t>
-  </si>
-  <si>
-    <t>4.08.2020</t>
-  </si>
-  <si>
-    <t>5.08.2020</t>
-  </si>
-  <si>
-    <t>6.08.2020</t>
-  </si>
-  <si>
-    <t>7.08.2020</t>
-  </si>
-  <si>
-    <t>8.08.2020</t>
-  </si>
-  <si>
-    <t>10.08.2020</t>
-  </si>
-  <si>
-    <t>11.08.2020</t>
-  </si>
-  <si>
-    <t>12.08.2020</t>
-  </si>
-  <si>
-    <t>13.08.2020</t>
-  </si>
-  <si>
-    <t>14.08.2020</t>
-  </si>
-  <si>
-    <t>15.08.2020</t>
-  </si>
-  <si>
-    <t>17.08.2020</t>
-  </si>
-  <si>
-    <t>18.08.2020</t>
-  </si>
-  <si>
-    <t>4.08.2020 16:00</t>
-  </si>
-  <si>
-    <t>4.08.2020 17:00</t>
-  </si>
-  <si>
-    <t>5.08.2020 12:00</t>
-  </si>
-  <si>
-    <t>5.08.2020 13:00</t>
-  </si>
-  <si>
-    <t>10.08.2020 10:00</t>
-  </si>
-  <si>
-    <t>10.08.2020 16:00</t>
-  </si>
-  <si>
-    <t>15.08.2020 13:00</t>
-  </si>
-  <si>
-    <t>15.08.2020 18:00</t>
-  </si>
-  <si>
-    <t>17.08.2020 13:00</t>
-  </si>
-  <si>
-    <t>17.08.2020 18:00</t>
-  </si>
-  <si>
-    <t>20.08.2020 13:00</t>
-  </si>
-  <si>
-    <t>20.08.2020 18:00</t>
-  </si>
-  <si>
-    <t>21.08.2020 7:00</t>
-  </si>
-  <si>
-    <t>21.08.2020 8:00</t>
+    <t>Кибринские луды, Воронья губа</t>
+  </si>
+  <si>
+    <t>Лувеньга, вершина залива</t>
+  </si>
+  <si>
+    <t>Кандалакша, вершина залива</t>
   </si>
   <si>
     <t>Июнь</t>
@@ -397,12 +320,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy\ h:mm"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="dd\.mm\.yyyy\ h:mm"/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="181" formatCode="0.00_ "/>
   </numFmts>
@@ -429,9 +352,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -442,22 +387,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,7 +405,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,7 +413,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,9 +456,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,7 +472,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -535,40 +488,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -587,97 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,7 +528,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,13 +642,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,49 +672,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,6 +719,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -807,6 +741,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,26 +786,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,25 +812,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,156 +821,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1056,16 +979,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1082,55 +1008,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
-    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
-    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
-    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
-    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
-    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
-    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
-    <cellStyle name="Процент" xfId="9" builtinId="5"/>
-    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
-    <cellStyle name="Итого" xfId="11" builtinId="25"/>
-    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
-    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
-    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
-    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
-    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
-    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
-    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
-    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
-    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
-    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
-    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
-    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
-    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
-    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
-    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
-    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
-    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1401,8 +1327,8 @@
   <sheetPr/>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1690,7 +1616,7 @@
       <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="12">
         <f>A22/100*B19</f>
         <v>4.0128</v>
       </c>
@@ -1714,6 +1640,323 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="18.0462962962963" customWidth="1"/>
+    <col min="3" max="3" width="19.6388888888889" customWidth="1"/>
+    <col min="4" max="4" width="18.4537037037037" customWidth="1"/>
+    <col min="5" max="5" width="14.2685185185185" customWidth="1"/>
+    <col min="6" max="6" width="17.2685185185185" customWidth="1"/>
+    <col min="7" max="7" width="16.3611111111111" customWidth="1"/>
+    <col min="8" max="8" width="16.4907407407407" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="2:7">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="2:7">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="2:7">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="2:7">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="2:7">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="2:7">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="2:7">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="2:7">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="2:7">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="2:7">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="2:5">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="2:5">
+      <c r="B19">
+        <f>C19*(D19+E19)</f>
+        <v>200.64</v>
+      </c>
+      <c r="C19">
+        <f>SUM(G3:G16)</f>
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>11.4</v>
+      </c>
+      <c r="E19">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:2">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="12">
+        <f>A22/100*B19</f>
+        <v>4.0128</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B89"/>
@@ -1729,7 +1972,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8">
+      <c r="A1" s="9">
         <v>44348</v>
       </c>
       <c r="B1" t="s">
@@ -1737,7 +1980,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>44349</v>
       </c>
       <c r="B2" t="s">
@@ -1745,7 +1988,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>44350</v>
       </c>
       <c r="B3" t="s">
@@ -1753,7 +1996,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>44351</v>
       </c>
       <c r="B4" t="s">
@@ -1761,7 +2004,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>44352</v>
       </c>
       <c r="B5" t="s">
@@ -1769,15 +2012,15 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>44353</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>44354</v>
       </c>
       <c r="B7" t="s">
@@ -1785,7 +2028,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>44355</v>
       </c>
       <c r="B8" t="s">
@@ -1793,7 +2036,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>44356</v>
       </c>
       <c r="B9" t="s">
@@ -1801,7 +2044,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>44357</v>
       </c>
       <c r="B10" t="s">
@@ -1809,7 +2052,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>44358</v>
       </c>
       <c r="B11" t="s">
@@ -1817,31 +2060,31 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>44359</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="9">
+      <c r="A13" s="10">
         <v>44360</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="9">
+      <c r="A14" s="10">
         <v>44361</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="8">
+      <c r="A15" s="9">
         <v>44362</v>
       </c>
       <c r="B15" t="s">
@@ -1849,7 +2092,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="8">
+      <c r="A16" s="9">
         <v>44363</v>
       </c>
       <c r="B16" t="s">
@@ -1857,7 +2100,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="8">
+      <c r="A17" s="9">
         <v>44364</v>
       </c>
       <c r="B17" t="s">
@@ -1865,7 +2108,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="8">
+      <c r="A18" s="9">
         <v>44365</v>
       </c>
       <c r="B18" t="s">
@@ -1873,7 +2116,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="8">
+      <c r="A19" s="9">
         <v>44366</v>
       </c>
       <c r="B19" t="s">
@@ -1881,15 +2124,15 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="9">
+      <c r="A20" s="10">
         <v>44367</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="8">
+      <c r="A21" s="9">
         <v>44368</v>
       </c>
       <c r="B21" t="s">
@@ -1897,7 +2140,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="8">
+      <c r="A22" s="9">
         <v>44369</v>
       </c>
       <c r="B22" t="s">
@@ -1905,7 +2148,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="8">
+      <c r="A23" s="9">
         <v>44370</v>
       </c>
       <c r="B23" t="s">
@@ -1913,7 +2156,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="8">
+      <c r="A24" s="9">
         <v>44371</v>
       </c>
       <c r="B24" t="s">
@@ -1921,7 +2164,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="8">
+      <c r="A25" s="9">
         <v>44372</v>
       </c>
       <c r="B25" t="s">
@@ -1929,7 +2172,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="8">
+      <c r="A26" s="9">
         <v>44373</v>
       </c>
       <c r="B26" t="s">
@@ -1937,15 +2180,15 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="9">
+      <c r="A27" s="10">
         <v>44374</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="8">
+      <c r="A28" s="9">
         <v>44375</v>
       </c>
       <c r="B28" t="s">
@@ -1953,7 +2196,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="8">
+      <c r="A29" s="9">
         <v>44376</v>
       </c>
       <c r="B29" t="s">
@@ -1961,7 +2204,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="8">
+      <c r="A30" s="9">
         <v>44377</v>
       </c>
       <c r="B30" t="s">
@@ -1969,7 +2212,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="8">
+      <c r="A31" s="9">
         <v>44378</v>
       </c>
       <c r="B31" t="s">
@@ -1977,7 +2220,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="8">
+      <c r="A32" s="9">
         <v>44379</v>
       </c>
       <c r="B32" t="s">
@@ -1985,7 +2228,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="8">
+      <c r="A33" s="9">
         <v>44380</v>
       </c>
       <c r="B33" t="s">
@@ -1993,15 +2236,15 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="9">
+      <c r="A34" s="10">
         <v>44381</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="8">
+      <c r="A35" s="9">
         <v>44382</v>
       </c>
       <c r="B35" t="s">
@@ -2009,7 +2252,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="8">
+      <c r="A36" s="9">
         <v>44383</v>
       </c>
       <c r="B36" t="s">
@@ -2017,7 +2260,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="8">
+      <c r="A37" s="9">
         <v>44384</v>
       </c>
       <c r="B37" t="s">
@@ -2025,7 +2268,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="8">
+      <c r="A38" s="9">
         <v>44385</v>
       </c>
       <c r="B38" t="s">
@@ -2033,7 +2276,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="8">
+      <c r="A39" s="9">
         <v>44386</v>
       </c>
       <c r="B39" t="s">
@@ -2041,7 +2284,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="8">
+      <c r="A40" s="9">
         <v>44387</v>
       </c>
       <c r="B40" t="s">
@@ -2049,7 +2292,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="8">
+      <c r="A41" s="9">
         <v>44388</v>
       </c>
       <c r="B41" t="s">
@@ -2057,7 +2300,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="8">
+      <c r="A42" s="9">
         <v>44389</v>
       </c>
       <c r="B42" t="s">
@@ -2065,7 +2308,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="8">
+      <c r="A43" s="9">
         <v>44390</v>
       </c>
       <c r="B43" t="s">
@@ -2073,7 +2316,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="8">
+      <c r="A44" s="9">
         <v>44391</v>
       </c>
       <c r="B44" t="s">
@@ -2081,7 +2324,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="8">
+      <c r="A45" s="9">
         <v>44392</v>
       </c>
       <c r="B45" t="s">
@@ -2089,7 +2332,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="8">
+      <c r="A46" s="9">
         <v>44393</v>
       </c>
       <c r="B46" t="s">
@@ -2097,7 +2340,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="8">
+      <c r="A47" s="9">
         <v>44394</v>
       </c>
       <c r="B47" t="s">
@@ -2105,7 +2348,7 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="8">
+      <c r="A48" s="9">
         <v>44395</v>
       </c>
       <c r="B48" t="s">
@@ -2113,7 +2356,7 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="8">
+      <c r="A49" s="9">
         <v>44396</v>
       </c>
       <c r="B49" t="s">
@@ -2121,7 +2364,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="8">
+      <c r="A50" s="9">
         <v>44397</v>
       </c>
       <c r="B50" t="s">
@@ -2129,7 +2372,7 @@
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="8">
+      <c r="A51" s="9">
         <v>44398</v>
       </c>
       <c r="B51" t="s">
@@ -2137,7 +2380,7 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="8">
+      <c r="A52" s="9">
         <v>44399</v>
       </c>
       <c r="B52" t="s">
@@ -2145,7 +2388,7 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="8">
+      <c r="A53" s="9">
         <v>44400</v>
       </c>
       <c r="B53" t="s">
@@ -2153,7 +2396,7 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="8">
+      <c r="A54" s="9">
         <v>44401</v>
       </c>
       <c r="B54" t="s">
@@ -2161,7 +2404,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="8">
+      <c r="A55" s="9">
         <v>44402</v>
       </c>
       <c r="B55" t="s">
@@ -2169,7 +2412,7 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="8">
+      <c r="A56" s="9">
         <v>44403</v>
       </c>
       <c r="B56" t="s">
@@ -2177,7 +2420,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="8">
+      <c r="A57" s="9">
         <v>44404</v>
       </c>
       <c r="B57" t="s">
@@ -2185,7 +2428,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="8">
+      <c r="A58" s="9">
         <v>44405</v>
       </c>
       <c r="B58" t="s">
@@ -2193,7 +2436,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="8">
+      <c r="A59" s="9">
         <v>44406</v>
       </c>
       <c r="B59" t="s">
@@ -2201,7 +2444,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="8">
+      <c r="A60" s="9">
         <v>44407</v>
       </c>
       <c r="B60" t="s">
@@ -2209,7 +2452,7 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="8">
+      <c r="A61" s="9">
         <v>44408</v>
       </c>
       <c r="B61" t="s">
@@ -2217,7 +2460,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="8">
+      <c r="A62" s="9">
         <v>44409</v>
       </c>
       <c r="B62" t="s">
@@ -2225,7 +2468,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="8">
+      <c r="A63" s="9">
         <v>44410</v>
       </c>
       <c r="B63" t="s">
@@ -2233,7 +2476,7 @@
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="8">
+      <c r="A64" s="9">
         <v>44411</v>
       </c>
       <c r="B64" t="s">
@@ -2241,7 +2484,7 @@
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="8">
+      <c r="A65" s="9">
         <v>44412</v>
       </c>
       <c r="B65" t="s">
@@ -2249,7 +2492,7 @@
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="8">
+      <c r="A66" s="9">
         <v>44413</v>
       </c>
       <c r="B66" t="s">
@@ -2257,7 +2500,7 @@
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="8">
+      <c r="A67" s="9">
         <v>44414</v>
       </c>
       <c r="B67" t="s">
@@ -2265,7 +2508,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="8">
+      <c r="A68" s="9">
         <v>44415</v>
       </c>
       <c r="B68" t="s">
@@ -2273,7 +2516,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="8">
+      <c r="A69" s="9">
         <v>44416</v>
       </c>
       <c r="B69" t="s">
@@ -2281,7 +2524,7 @@
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="8">
+      <c r="A70" s="9">
         <v>44417</v>
       </c>
       <c r="B70" t="s">
@@ -2289,7 +2532,7 @@
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="8">
+      <c r="A71" s="9">
         <v>44418</v>
       </c>
       <c r="B71" t="s">
@@ -2297,7 +2540,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="8">
+      <c r="A72" s="9">
         <v>44419</v>
       </c>
       <c r="B72" t="s">
@@ -2305,7 +2548,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="8">
+      <c r="A73" s="9">
         <v>44420</v>
       </c>
       <c r="B73" t="s">
@@ -2313,7 +2556,7 @@
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="8">
+      <c r="A74" s="9">
         <v>44421</v>
       </c>
       <c r="B74" t="s">
@@ -2321,7 +2564,7 @@
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="8">
+      <c r="A75" s="9">
         <v>44422</v>
       </c>
       <c r="B75" t="s">
@@ -2329,7 +2572,7 @@
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="8">
+      <c r="A76" s="9">
         <v>44423</v>
       </c>
       <c r="B76" t="s">
@@ -2337,7 +2580,7 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="8">
+      <c r="A77" s="9">
         <v>44424</v>
       </c>
       <c r="B77" t="s">
@@ -2345,7 +2588,7 @@
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="8">
+      <c r="A78" s="9">
         <v>44425</v>
       </c>
       <c r="B78" t="s">
@@ -2353,7 +2596,7 @@
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="8">
+      <c r="A79" s="9">
         <v>44426</v>
       </c>
       <c r="B79" t="s">
@@ -2361,7 +2604,7 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="8">
+      <c r="A80" s="9">
         <v>44427</v>
       </c>
       <c r="B80" t="s">
@@ -2369,7 +2612,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="8">
+      <c r="A81" s="9">
         <v>44428</v>
       </c>
       <c r="B81" t="s">
@@ -2377,7 +2620,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="8">
+      <c r="A82" s="9">
         <v>44429</v>
       </c>
       <c r="B82" t="s">
@@ -2385,7 +2628,7 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="8">
+      <c r="A83" s="9">
         <v>44430</v>
       </c>
       <c r="B83" t="s">
@@ -2393,7 +2636,7 @@
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="8">
+      <c r="A84" s="9">
         <v>44431</v>
       </c>
       <c r="B84" t="s">
@@ -2401,7 +2644,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="8">
+      <c r="A85" s="9">
         <v>44432</v>
       </c>
       <c r="B85" t="s">
@@ -2409,7 +2652,7 @@
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="8">
+      <c r="A86" s="9">
         <v>44433</v>
       </c>
       <c r="B86" t="s">
@@ -2417,7 +2660,7 @@
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="8">
+      <c r="A87" s="9">
         <v>44434</v>
       </c>
       <c r="B87" t="s">
@@ -2425,7 +2668,7 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="8">
+      <c r="A88" s="9">
         <v>44435</v>
       </c>
       <c r="B88" t="s">
@@ -2433,7 +2676,7 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="8">
+      <c r="A89" s="9">
         <v>44436</v>
       </c>
       <c r="B89" t="s">
@@ -2446,7 +2689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H19"/>
@@ -2507,8 +2750,8 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8">
         <v>44348.375</v>
       </c>
       <c r="C3" t="s">
@@ -2517,20 +2760,20 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="8">
         <v>44348.4166666667</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="7">
         <v>1</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7">
+      <c r="A4" s="7"/>
+      <c r="B4" s="4">
         <v>44351.5</v>
       </c>
       <c r="C4" t="s">
@@ -2542,17 +2785,17 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>43986.7083333333</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7">
+      <c r="A5" s="7"/>
+      <c r="B5" s="4">
         <v>44354.5</v>
       </c>
       <c r="C5" t="s">
@@ -2564,16 +2807,16 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <v>43989.7083333333</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="7">
         <v>2</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>44363.375</v>
       </c>
       <c r="C6" t="s">
@@ -2593,7 +2836,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>44366.5</v>
       </c>
       <c r="C7" t="s">
@@ -2613,7 +2856,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>44372.375</v>
       </c>
       <c r="C8" t="s">
@@ -2625,7 +2868,7 @@
       <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
         <v>44007.4166666667</v>
       </c>
       <c r="G8">
@@ -2633,7 +2876,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>44372.4166666667</v>
       </c>
       <c r="C9" t="s">
@@ -2653,7 +2896,7 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="6">
+      <c r="B10" s="8">
         <v>44372.6666666667</v>
       </c>
       <c r="C10" t="s">
@@ -2662,18 +2905,18 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="8">
         <v>44372.7083333333</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>44376.5416666667</v>
       </c>
       <c r="C11" t="s">
@@ -2749,7 +2992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:F25"/>
@@ -2788,56 +3031,56 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="A4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="A8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="A9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="A14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
@@ -2900,7 +3143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:F29"/>
@@ -2939,7 +3182,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B3" t="s">
@@ -2948,7 +3191,7 @@
       <c r="D3" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F3">
@@ -2956,7 +3199,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B4" t="s">
@@ -2965,7 +3208,7 @@
       <c r="D4" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F4">
@@ -2973,7 +3216,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B5" t="s">
@@ -2982,7 +3225,7 @@
       <c r="D5" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>64</v>
       </c>
       <c r="F5">
@@ -2990,7 +3233,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B6" t="s">
@@ -2999,7 +3242,7 @@
       <c r="D6" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>65</v>
       </c>
       <c r="F6">
@@ -3007,7 +3250,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B7" t="s">
@@ -3016,7 +3259,7 @@
       <c r="D7" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F7">
@@ -3024,7 +3267,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B8" t="s">
@@ -3033,7 +3276,7 @@
       <c r="D8" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F8">
@@ -3041,7 +3284,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B9" t="s">
@@ -3050,7 +3293,7 @@
       <c r="D9" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F9">
@@ -3058,7 +3301,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B10" t="s">
@@ -3067,7 +3310,7 @@
       <c r="D10" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="6" t="s">
         <v>69</v>
       </c>
       <c r="F10">
@@ -3075,7 +3318,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B11" t="s">
@@ -3084,7 +3327,7 @@
       <c r="D11" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F11">
@@ -3092,7 +3335,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B12" t="s">
@@ -3101,7 +3344,7 @@
       <c r="D12" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="6" t="s">
         <v>71</v>
       </c>
       <c r="F12">
@@ -3109,7 +3352,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B13" t="s">
@@ -3118,7 +3361,7 @@
       <c r="D13" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F13">
@@ -3126,7 +3369,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B14" t="s">
@@ -3135,7 +3378,7 @@
       <c r="D14" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F14">
@@ -3143,7 +3386,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B15" t="s">
@@ -3152,7 +3395,7 @@
       <c r="D15" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F15">
@@ -3160,7 +3403,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B16" t="s">
@@ -3169,7 +3412,7 @@
       <c r="D16" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="6" t="s">
         <v>75</v>
       </c>
       <c r="F16">
@@ -3177,7 +3420,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B17" t="s">
@@ -3186,7 +3429,7 @@
       <c r="D17" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="6" t="s">
         <v>76</v>
       </c>
       <c r="F17">
@@ -3194,7 +3437,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B18" t="s">
@@ -3203,7 +3446,7 @@
       <c r="D18" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="6" t="s">
         <v>77</v>
       </c>
       <c r="F18">
@@ -3211,7 +3454,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B19" t="s">
@@ -3220,7 +3463,7 @@
       <c r="D19" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="6" t="s">
         <v>78</v>
       </c>
       <c r="F19">
@@ -3228,8 +3471,8 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="A20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
@@ -3289,13 +3532,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F26"/>
+  <dimension ref="A2:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3328,8 +3571,8 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>79</v>
+      <c r="A3" s="6">
+        <v>44424</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -3337,16 +3580,16 @@
       <c r="D3" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>79</v>
+      <c r="E3" s="6">
+        <v>44409</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>80</v>
+      <c r="A4" s="6">
+        <v>44425</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -3354,16 +3597,16 @@
       <c r="D4" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>80</v>
+      <c r="E4" s="6">
+        <v>44411</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>81</v>
+      <c r="A5" s="6">
+        <v>44426</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -3371,16 +3614,16 @@
       <c r="D5" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>81</v>
+      <c r="E5" s="6">
+        <v>44412</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>82</v>
+      <c r="A6" s="6">
+        <v>44427</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -3388,16 +3631,16 @@
       <c r="D6" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>82</v>
+      <c r="E6" s="6">
+        <v>44413</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
-        <v>83</v>
+      <c r="A7" s="6">
+        <v>44428</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -3405,234 +3648,74 @@
       <c r="D7" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>83</v>
+      <c r="E7" s="6">
+        <v>44414</v>
       </c>
       <c r="F7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6"/>
+      <c r="B8"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="4" t="s">
-        <v>93</v>
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14">
+        <f>C14*(D14+E14)</f>
+        <v>77.4</v>
+      </c>
+      <c r="C14">
+        <f>SUM(F3:F9)</f>
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>1.56</v>
+      </c>
+      <c r="E14">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16">
+        <f>A17/100*B14+A18</f>
+        <v>0.00387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>0.005</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22">
-        <f>C22*(D22+E22)</f>
-        <v>86</v>
-      </c>
-      <c r="C22">
-        <f>SUM(F3:F17)</f>
-        <v>50</v>
-      </c>
-      <c r="D22">
-        <v>1.56</v>
-      </c>
-      <c r="E22">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24">
-        <f>A25/100*B22+A26</f>
-        <v>0.0043</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>0.005</v>
-      </c>
-      <c r="B25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
-        <v>60</v>
-      </c>
+    <row r="22" spans="2:2">
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3640,16 +3723,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="18.0462962962963" customWidth="1"/>
     <col min="3" max="3" width="19.6388888888889" customWidth="1"/>
@@ -3701,8 +3784,8 @@
       </c>
     </row>
     <row r="3" customFormat="1" spans="2:7">
-      <c r="B3" t="s">
-        <v>94</v>
+      <c r="B3" s="4">
+        <v>44424.5833333333</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -3713,16 +3796,16 @@
       <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
-        <v>95</v>
+      <c r="F3" s="4">
+        <v>44424.625</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="2:7">
-      <c r="B4" t="s">
-        <v>96</v>
+      <c r="B4" s="4">
+        <v>44424.6666666667</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -3733,16 +3816,16 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>97</v>
+      <c r="F4" s="4">
+        <v>44424.7083333333</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="2:7">
-      <c r="B5" t="s">
-        <v>98</v>
+      <c r="B5" s="4">
+        <v>44425.4166666667</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -3753,90 +3836,110 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
-        <v>99</v>
+      <c r="F5" s="4">
+        <v>44425.6666666667</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="2:7">
-      <c r="B6" t="s">
-        <v>100</v>
+      <c r="B6" s="4">
+        <v>44425.75</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
-        <v>101</v>
+      <c r="F6" s="4">
+        <v>44425.8333333333</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:7">
-      <c r="B7" t="s">
-        <v>102</v>
+      <c r="B7" s="4">
+        <v>44426.5416666667</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4">
+        <v>44423.6666666667</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="2:7">
+      <c r="B8" s="4">
+        <v>44427.4166666667</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4">
+        <v>44425.5</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="2:7">
+      <c r="B9" s="4">
+        <v>44428.5416666667</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4">
+        <v>44428.75</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="2:7">
+      <c r="B10" s="4">
+        <v>44429.2916666667</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="2:7">
-      <c r="B8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="2:7">
-      <c r="B9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>28</v>
       </c>
-      <c r="F9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9">
+      <c r="F10" s="4">
+        <v>44429.3333333333</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>
@@ -3854,29 +3957,38 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="2:5">
+    <row r="17" customFormat="1" spans="2:10">
       <c r="B17">
         <f>C17*(D17+E17)</f>
-        <v>125.4</v>
+        <v>188.1</v>
       </c>
       <c r="C17">
         <f>SUM(G3:G14)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>11.4</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:2">
+      <c r="E17" s="5">
+        <f>1+0.14</f>
+        <v>1.14</v>
+      </c>
+      <c r="J17">
+        <f>579.2-B17</f>
+        <v>391.1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:10">
       <c r="A19" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="1">
         <f>A20/100*B17</f>
-        <v>2.508</v>
+        <v>3.762</v>
+      </c>
+      <c r="J19">
+        <f>9.381-B19</f>
+        <v>5.619</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:2">
@@ -3897,13 +4009,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -3916,83 +4028,83 @@
   <sheetData>
     <row r="1" spans="2:17">
       <c r="B1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="K1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="L1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="M1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="O1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="Q1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="2:17">
       <c r="B2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="K2" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="L2" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="M2" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="O2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="Q2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B3">
         <v>188.12</v>
@@ -4027,12 +4139,12 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <f>'Август лодка'!B17+'Август генератор'!B22</f>
-        <v>211.4</v>
+        <f>'Август лодка'!B17+'Август генератор'!B14</f>
+        <v>265.5</v>
       </c>
       <c r="O3">
         <f>K3-M3</f>
-        <v>651.69</v>
+        <v>597.59</v>
       </c>
       <c r="Q3">
         <f>401.76+150</f>
@@ -4045,7 +4157,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>7.53</v>
@@ -4080,11 +4192,11 @@
       </c>
       <c r="M4">
         <f>'Август лодка'!B19</f>
-        <v>2.508</v>
+        <v>3.762</v>
       </c>
       <c r="O4">
         <f>K4-M4</f>
-        <v>10.0002</v>
+        <v>8.7462</v>
       </c>
       <c r="Q4">
         <v>12.39</v>
@@ -4092,7 +4204,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B5">
         <v>3.41</v>
@@ -4127,12 +4239,12 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <f>'Август генератор'!B24</f>
-        <v>0.0043</v>
+        <f>'Август генератор'!B16</f>
+        <v>0.00387</v>
       </c>
       <c r="O5">
         <f>K5-M5</f>
-        <v>7.058476</v>
+        <v>7.058906</v>
       </c>
       <c r="Q5">
         <v>4.2</v>
